--- a/testData/zigWheels.xlsx
+++ b/testData/zigWheels.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="35">
   <si>
     <t>Models</t>
   </si>
